--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.28729999999999</v>
+        <v>11.6861</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.56809999999999</v>
+        <v>13.73869999999999</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.06</v>
+        <v>12.1143</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>12.6971</v>
+        <v>12.1949</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.522699999999999</v>
+        <v>-8.5108</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,10 +641,10 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.532000000000002</v>
+        <v>-8.477499999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>11.73310000000001</v>
+        <v>12.2815</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.0212</v>
+        <v>14.0776</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-10.67</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.842299999999997</v>
+        <v>-7.975700000000001</v>
       </c>
       <c r="E15" t="n">
         <v>14.11</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.0799</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="23">
